--- a/pkg/excels/output/О-01-00002.xlsx
+++ b/pkg/excels/output/О-01-00002.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ОАО  "Таджикгидроэлектромонтаж"</t>
   </si>
@@ -236,10 +236,26 @@
 подпись зав. склада                                                                                                                                                                     </t>
   </si>
   <si>
-    <t>о-0001</t>
-  </si>
-  <si>
-    <t>Вилка</t>
+    <t xml:space="preserve">НАКЛАДНАЯ № О-01-00002
+от 1 июля 2024 года       
+на отпуск материала 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Project
+Регион: qwe </t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t>Подстанция-Объект-001</t>
+  </si>
+  <si>
+    <t>опора</t>
+  </si>
+  <si>
+    <t>Опора жб стойка СВ 10,5-3,5м</t>
   </si>
   <si>
     <t>шт</t>
@@ -248,10 +264,22 @@
     <t/>
   </si>
   <si>
-    <t>о-00002</t>
-  </si>
-  <si>
-    <t>Нож</t>
+    <t>Крот</t>
+  </si>
+  <si>
+    <t>Бачок для крота 5л Пр.Tolsen</t>
+  </si>
+  <si>
+    <t>комп</t>
+  </si>
+  <si>
+    <t>Суперадмин</t>
+  </si>
+  <si>
+    <t>Мурод</t>
+  </si>
+  <si>
+    <t>Диловар</t>
   </si>
 </sst>
 </file>
@@ -513,7 +541,7 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -1001,13 +1029,13 @@
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
       <c r="E1" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="2"/>
       <c r="I1" s="24" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -1018,7 +1046,9 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1067,9 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="28" t="s">
         <v>17</v>
       </c>
@@ -1080,22 +1112,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
@@ -1105,177 +1137,156 @@
         <v>2</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H6" s="36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7">
-      <c r="A7" s="36">
-        <v>3</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="36">
-        <v>3</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34" t="s">
-        <v>18</v>
-      </c>
+    <row r="9" spans="1:11" ht="18.6" customHeight="true">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:11" ht="18.6" customHeight="true">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="34"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="20"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="22"/>
+      <c r="F11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="32"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13"/>
+    <row r="14" spans="1:11">
+      <c r="H14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14"/>
     <row r="15" spans="1:11">
-      <c r="H15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="35"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:K13"/>
+  <mergeCells count="22">
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="I4:K4"/>
@@ -1289,8 +1300,6 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup r:id="rId1" orientation="portrait" paperSize="9" verticalDpi="0"/>
